--- a/public/SP25QuerySample.xlsx
+++ b/public/SP25QuerySample.xlsx
@@ -49,7 +49,7 @@
     <t>Instr. Mode</t>
   </si>
   <si>
-    <t>Start row[11]</t>
+    <t>Start</t>
   </si>
   <si>
     <t>End</t>
@@ -324,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -342,6 +342,9 @@
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -667,7 +670,7 @@
       <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -772,70 +775,70 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="2">
         <v>9903.0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="2">
         <v>1.0</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="8" t="s">
         <v>58</v>
       </c>
       <c r="P3" s="2">
         <v>39.0</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="S3" s="7" t="s">
+      <c r="R3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="7" t="s">
+      <c r="T3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="8" t="s">
         <v>59</v>
       </c>
       <c r="W3" s="3">
@@ -844,13 +847,13 @@
       <c r="X3" s="3">
         <v>45779.0</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="8" t="s">
         <v>50</v>
       </c>
       <c r="AB3" s="4">
@@ -871,10 +874,10 @@
       <c r="AG3" s="2">
         <v>0.0</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="8" t="s">
         <v>63</v>
       </c>
       <c r="AL3" s="2">
@@ -886,84 +889,84 @@
       <c r="AO3" s="4">
         <v>0.0</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AP3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>64</v>
       </c>
       <c r="AR3" s="3">
         <v>367.0</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AT3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="2">
         <v>11545.0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="2">
         <v>2.0</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="8" t="s">
         <v>58</v>
       </c>
       <c r="P4" s="2">
         <v>39.0</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="7" t="s">
+      <c r="R4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="V4" s="7" t="s">
+      <c r="T4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="8" t="s">
         <v>59</v>
       </c>
       <c r="W4" s="3">
@@ -972,7 +975,7 @@
       <c r="X4" s="3">
         <v>45779.0</v>
       </c>
-      <c r="AA4" s="7" t="s">
+      <c r="AA4" s="8" t="s">
         <v>66</v>
       </c>
       <c r="AB4" s="4">
@@ -993,10 +996,10 @@
       <c r="AG4" s="2">
         <v>0.0</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AH4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AI4" s="8" t="s">
         <v>63</v>
       </c>
       <c r="AL4" s="2">
@@ -1008,84 +1011,84 @@
       <c r="AO4" s="4">
         <v>0.0</v>
       </c>
-      <c r="AP4" s="7" t="s">
+      <c r="AP4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AQ4" s="7" t="s">
+      <c r="AQ4" s="8" t="s">
         <v>64</v>
       </c>
       <c r="AR4" s="3">
         <v>367.0</v>
       </c>
-      <c r="AT4" s="7" t="s">
+      <c r="AT4" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="2">
         <v>9904.0</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>69</v>
       </c>
       <c r="G5" s="2">
         <v>3.0</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="8" t="s">
         <v>58</v>
       </c>
       <c r="P5" s="2">
         <v>39.0</v>
       </c>
-      <c r="Q5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="7" t="s">
+      <c r="Q5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="7" t="s">
+      <c r="S5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="7" t="s">
+      <c r="U5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="8" t="s">
         <v>59</v>
       </c>
       <c r="W5" s="3">
@@ -1094,7 +1097,7 @@
       <c r="X5" s="3">
         <v>45779.0</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AA5" s="8" t="s">
         <v>69</v>
       </c>
       <c r="AB5" s="4">
@@ -1115,10 +1118,10 @@
       <c r="AG5" s="2">
         <v>0.0</v>
       </c>
-      <c r="AH5" s="7" t="s">
+      <c r="AH5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AI5" s="7" t="s">
+      <c r="AI5" s="8" t="s">
         <v>63</v>
       </c>
       <c r="AL5" s="2">
@@ -1130,84 +1133,84 @@
       <c r="AO5" s="4">
         <v>0.0</v>
       </c>
-      <c r="AP5" s="7" t="s">
+      <c r="AP5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AQ5" s="7" t="s">
+      <c r="AQ5" s="8" t="s">
         <v>64</v>
       </c>
       <c r="AR5" s="3">
         <v>367.0</v>
       </c>
-      <c r="AT5" s="7" t="s">
+      <c r="AT5" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="2">
         <v>11546.0</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="2">
         <v>1.0</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="P6" s="2">
         <v>39.0</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" s="7" t="s">
+      <c r="R6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="V6" s="7" t="s">
+      <c r="T6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="8" t="s">
         <v>59</v>
       </c>
       <c r="W6" s="3">
@@ -1216,13 +1219,13 @@
       <c r="X6" s="3">
         <v>45779.0</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="Y6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AA6" s="8" t="s">
         <v>50</v>
       </c>
       <c r="AB6" s="4">
@@ -1243,10 +1246,10 @@
       <c r="AG6" s="2">
         <v>0.0</v>
       </c>
-      <c r="AH6" s="7" t="s">
+      <c r="AH6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AI6" s="7" t="s">
+      <c r="AI6" s="8" t="s">
         <v>63</v>
       </c>
       <c r="AL6" s="2">
@@ -1258,51 +1261,51 @@
       <c r="AO6" s="4">
         <v>0.0</v>
       </c>
-      <c r="AP6" s="7" t="s">
+      <c r="AP6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AQ6" s="8" t="s">
         <v>64</v>
       </c>
       <c r="AR6" s="3">
         <v>367.0</v>
       </c>
-      <c r="AT6" s="7" t="s">
+      <c r="AT6" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="2">
         <v>28992.0</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>75</v>
       </c>
       <c r="G7" s="2">
         <v>1.0</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="8" t="s">
         <v>54</v>
       </c>
       <c r="P7" s="2">
@@ -1328,10 +1331,10 @@
       <c r="AG7" s="2">
         <v>0.0</v>
       </c>
-      <c r="AH7" s="7" t="s">
+      <c r="AH7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="AI7" s="7" t="s">
+      <c r="AI7" s="8" t="s">
         <v>63</v>
       </c>
       <c r="AL7" s="2">
@@ -1343,10 +1346,10 @@
       <c r="AO7" s="4">
         <v>0.0</v>
       </c>
-      <c r="AP7" s="7" t="s">
+      <c r="AP7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AQ7" s="7" t="s">
+      <c r="AQ7" s="8" t="s">
         <v>77</v>
       </c>
       <c r="AR7" s="3"/>

--- a/public/SP25QuerySample.xlsx
+++ b/public/SP25QuerySample.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PSU\PSUGoober\Schelper\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B5509E-EB4C-4CF0-88BA-3568BA91BEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="sheet1 -1" sheetId="1" r:id="rId4"/>
+    <sheet name="sheet1 -1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -232,12 +241,6 @@
     <t>Mech Resp Eng Mat</t>
   </si>
   <si>
-    <t>12:20 pm</t>
-  </si>
-  <si>
-    <t>01:10 pm</t>
-  </si>
-  <si>
     <t>001L</t>
   </si>
   <si>
@@ -245,46 +248,60 @@
   </si>
   <si>
     <t>LAB</t>
+  </si>
+  <si>
+    <t>03:00 pm</t>
+  </si>
+  <si>
+    <t>04:00 pm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0066CC"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -295,7 +312,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -305,7 +322,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="double">
         <color rgb="FF000000"/>
@@ -319,51 +342,42 @@
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -553,65 +567,67 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AT7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.57"/>
-    <col customWidth="1" min="2" max="2" width="7.29"/>
-    <col customWidth="1" min="3" max="4" width="8.0"/>
-    <col customWidth="1" min="5" max="5" width="6.29"/>
-    <col customWidth="1" min="6" max="6" width="7.86"/>
-    <col customWidth="1" min="7" max="7" width="6.14"/>
-    <col customWidth="1" min="8" max="8" width="32.86"/>
-    <col customWidth="1" min="9" max="9" width="11.43"/>
-    <col customWidth="1" min="10" max="10" width="16.86"/>
-    <col customWidth="1" min="11" max="11" width="11.0"/>
-    <col customWidth="1" min="12" max="12" width="12.43"/>
-    <col customWidth="1" min="13" max="13" width="8.86"/>
-    <col customWidth="1" min="14" max="14" width="12.0"/>
-    <col customWidth="1" min="15" max="15" width="30.29"/>
-    <col customWidth="1" min="16" max="16" width="14.86"/>
-    <col customWidth="1" min="17" max="17" width="2.57"/>
-    <col customWidth="1" min="18" max="18" width="2.43"/>
-    <col customWidth="1" min="19" max="19" width="2.86"/>
-    <col customWidth="1" min="20" max="22" width="2.43"/>
-    <col customWidth="1" min="23" max="23" width="10.0"/>
-    <col customWidth="1" min="24" max="24" width="9.71"/>
-    <col customWidth="1" min="25" max="25" width="29.71"/>
-    <col customWidth="1" min="26" max="26" width="18.43"/>
-    <col customWidth="1" min="27" max="27" width="18.14"/>
-    <col customWidth="1" min="28" max="28" width="9.29"/>
-    <col customWidth="1" min="29" max="29" width="9.86"/>
-    <col customWidth="1" min="30" max="30" width="8.0"/>
-    <col customWidth="1" min="31" max="31" width="9.57"/>
-    <col customWidth="1" min="32" max="32" width="8.57"/>
-    <col customWidth="1" min="33" max="33" width="9.29"/>
-    <col customWidth="1" min="34" max="34" width="8.29"/>
-    <col customWidth="1" min="35" max="35" width="9.57"/>
-    <col customWidth="1" min="36" max="36" width="8.71"/>
-    <col customWidth="1" min="37" max="37" width="15.57"/>
-    <col customWidth="1" min="38" max="38" width="9.14"/>
-    <col customWidth="1" min="39" max="39" width="8.43"/>
-    <col customWidth="1" min="40" max="40" width="26.0"/>
-    <col customWidth="1" min="41" max="41" width="8.57"/>
-    <col customWidth="1" min="42" max="42" width="19.0"/>
-    <col customWidth="1" min="43" max="43" width="19.14"/>
-    <col customWidth="1" min="44" max="44" width="10.71"/>
-    <col customWidth="1" min="45" max="45" width="2.29"/>
-    <col customWidth="1" min="46" max="46" width="14.29"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" customWidth="1"/>
+    <col min="17" max="17" width="2.5546875" customWidth="1"/>
+    <col min="18" max="18" width="2.44140625" customWidth="1"/>
+    <col min="19" max="19" width="2.88671875" customWidth="1"/>
+    <col min="20" max="22" width="2.44140625" customWidth="1"/>
+    <col min="23" max="23" width="10" customWidth="1"/>
+    <col min="24" max="24" width="9.6640625" customWidth="1"/>
+    <col min="25" max="25" width="29.6640625" customWidth="1"/>
+    <col min="26" max="26" width="18.44140625" customWidth="1"/>
+    <col min="27" max="27" width="18.109375" customWidth="1"/>
+    <col min="28" max="28" width="9.33203125" customWidth="1"/>
+    <col min="29" max="29" width="9.88671875" customWidth="1"/>
+    <col min="30" max="30" width="8" customWidth="1"/>
+    <col min="31" max="31" width="9.5546875" customWidth="1"/>
+    <col min="32" max="32" width="8.5546875" customWidth="1"/>
+    <col min="33" max="33" width="9.33203125" customWidth="1"/>
+    <col min="34" max="34" width="8.33203125" customWidth="1"/>
+    <col min="35" max="35" width="9.5546875" customWidth="1"/>
+    <col min="36" max="36" width="8.6640625" customWidth="1"/>
+    <col min="37" max="37" width="15.5546875" customWidth="1"/>
+    <col min="38" max="38" width="9.109375" customWidth="1"/>
+    <col min="39" max="39" width="8.44140625" customWidth="1"/>
+    <col min="40" max="40" width="26" customWidth="1"/>
+    <col min="41" max="41" width="8.5546875" customWidth="1"/>
+    <col min="42" max="42" width="19" customWidth="1"/>
+    <col min="43" max="43" width="19.109375" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" customWidth="1"/>
+    <col min="45" max="45" width="2.33203125" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +652,7 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -670,7 +686,7 @@
       <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -774,38 +790,38 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B3" s="2">
-        <v>9903.0</v>
-      </c>
-      <c r="C3" s="8" t="s">
+        <v>9903</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L3" s="8" t="s">
@@ -814,126 +830,126 @@
       <c r="M3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="7" t="s">
         <v>58</v>
       </c>
       <c r="P3" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="Q3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S3" s="8" t="s">
+      <c r="R3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="8" t="s">
+      <c r="T3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="7" t="s">
         <v>59</v>
       </c>
       <c r="W3" s="3">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="X3" s="3">
-        <v>45779.0</v>
-      </c>
-      <c r="Y3" s="8" t="s">
+        <v>45779</v>
+      </c>
+      <c r="Y3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="Z3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AA3" s="7" t="s">
         <v>50</v>
       </c>
       <c r="AB3" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AE3" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AF3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AH3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AI3" s="7" t="s">
         <v>63</v>
       </c>
       <c r="AL3" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AM3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="AP3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AQ3" s="8" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AR3" s="3">
-        <v>367.0</v>
-      </c>
-      <c r="AT3" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="AT3" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="2">
-        <v>11545.0</v>
-      </c>
-      <c r="C4" s="8" t="s">
+        <v>11545</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="H4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L4" s="8" t="s">
@@ -942,120 +958,120 @@
       <c r="M4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>58</v>
       </c>
       <c r="P4" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="Q4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S4" s="8" t="s">
+      <c r="R4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="V4" s="8" t="s">
+      <c r="T4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="7" t="s">
         <v>59</v>
       </c>
       <c r="W4" s="3">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="X4" s="3">
-        <v>45779.0</v>
-      </c>
-      <c r="AA4" s="8" t="s">
+        <v>45779</v>
+      </c>
+      <c r="AA4" s="7" t="s">
         <v>66</v>
       </c>
       <c r="AB4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AF4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AH4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AI4" s="8" t="s">
+      <c r="AI4" s="7" t="s">
         <v>63</v>
       </c>
       <c r="AL4" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AM4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="AP4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AQ4" s="8" t="s">
+      <c r="AQ4" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AR4" s="3">
-        <v>367.0</v>
-      </c>
-      <c r="AT4" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="AT4" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="2">
-        <v>9904.0</v>
-      </c>
-      <c r="C5" s="8" t="s">
+        <v>9904</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G5" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="H5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="L5" s="8" t="s">
@@ -1064,307 +1080,305 @@
       <c r="M5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>58</v>
       </c>
       <c r="P5" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="8" t="s">
+      <c r="S5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" s="8" t="s">
+      <c r="U5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="7" t="s">
         <v>59</v>
       </c>
       <c r="W5" s="3">
-        <v>45670.0</v>
+        <v>45670</v>
       </c>
       <c r="X5" s="3">
-        <v>45779.0</v>
-      </c>
-      <c r="AA5" s="8" t="s">
+        <v>45779</v>
+      </c>
+      <c r="AA5" s="7" t="s">
         <v>69</v>
       </c>
       <c r="AB5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AC5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AE5" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AF5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AH5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AI5" s="7" t="s">
         <v>63</v>
       </c>
       <c r="AL5" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AM5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="AP5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AQ5" s="8" t="s">
+      <c r="AQ5" s="7" t="s">
         <v>64</v>
       </c>
       <c r="AR5" s="3">
-        <v>367.0</v>
-      </c>
-      <c r="AT5" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="AT5" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:46" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="2">
-        <v>11546.0</v>
-      </c>
-      <c r="C6" s="8" t="s">
+        <v>11546</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W6" s="3">
+        <v>45670</v>
+      </c>
+      <c r="X6" s="3">
+        <v>45779</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>8</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>367</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="2">
+        <v>28992</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P6" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="W6" s="3">
-        <v>45670.0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>45779.0</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="AP6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AQ6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>367.0</v>
-      </c>
-      <c r="AT6" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="2">
-        <v>28992.0</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>54</v>
       </c>
       <c r="P7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="AB7" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AC7" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AD7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AF7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="AH7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AI7" s="7" t="s">
         <v>63</v>
       </c>
       <c r="AL7" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AM7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="AP7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="AQ7" s="8" t="s">
-        <v>77</v>
+      <c r="AQ7" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="AR7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
-    <hyperlink r:id="rId2" ref="A4"/>
-    <hyperlink r:id="rId3" ref="A5"/>
-    <hyperlink r:id="rId4" ref="A6"/>
-    <hyperlink r:id="rId5" ref="A7"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId6"/>
 </worksheet>
 </file>